--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_11_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_11_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_24</t>
+          <t>model_11_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9572231478421183</v>
+        <v>0.9360049252805666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8196955251767206</v>
+        <v>0.7936143972547163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7263161982941883</v>
+        <v>0.6819932391036275</v>
       </c>
       <c r="E2" t="n">
-        <v>0.958371054598833</v>
+        <v>0.9843215757625978</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9599593526902201</v>
+        <v>0.9097101155110542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2860490073490479</v>
+        <v>0.4279353593190759</v>
       </c>
       <c r="H2" t="n">
-        <v>1.205696853369036</v>
+        <v>1.380101475876031</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06189443891725006</v>
+        <v>1.456925425403809</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7743303640357028</v>
+        <v>0.2192252397150621</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4181124014764764</v>
+        <v>0.8380756067956745</v>
       </c>
       <c r="L2" t="n">
-        <v>1.88105474243597</v>
+        <v>0.9788226552046824</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5348354955956531</v>
+        <v>0.6541676844044468</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02281432115087</v>
+        <v>1.034130706517031</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5576045499052641</v>
+        <v>0.6820169570433331</v>
       </c>
       <c r="P2" t="n">
-        <v>140.5031842569489</v>
+        <v>139.6975662488696</v>
       </c>
       <c r="Q2" t="n">
-        <v>224.6056161728548</v>
+        <v>223.7999981647754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_23</t>
+          <t>model_11_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9573232111084703</v>
+        <v>0.9354848270575756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8195408651752496</v>
+        <v>0.7928574802873318</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7179315106430429</v>
+        <v>0.676381509114811</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9597365279835353</v>
+        <v>0.9831855938497822</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9610847205931011</v>
+        <v>0.9074695696350201</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2853798838262033</v>
+        <v>0.4314132585310477</v>
       </c>
       <c r="H3" t="n">
-        <v>1.206731065511017</v>
+        <v>1.385162983122213</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06379066198353836</v>
+        <v>1.482635168423619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7489315101164327</v>
+        <v>0.235109228015039</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4063610860499855</v>
+        <v>0.8588724751850753</v>
       </c>
       <c r="L3" t="n">
-        <v>1.898896397430417</v>
+        <v>0.9809761378821701</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5342095879205121</v>
+        <v>0.656820567987215</v>
       </c>
       <c r="N3" t="n">
-        <v>1.022760954075483</v>
+        <v>1.03440809223596</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5569519960445847</v>
+        <v>0.6847827793724459</v>
       </c>
       <c r="P3" t="n">
-        <v>140.5078681211287</v>
+        <v>139.681377623539</v>
       </c>
       <c r="Q3" t="n">
-        <v>224.6103000370346</v>
+        <v>223.7838095394449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_22</t>
+          <t>model_11_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9574040239761272</v>
+        <v>0.9349412492333595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8193699389791673</v>
+        <v>0.7920817280281076</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7093513073945534</v>
+        <v>0.6707630179284942</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9610821981151842</v>
+        <v>0.9820099265314657</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9621903334528616</v>
+        <v>0.9051974939943029</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2848394878080721</v>
+        <v>0.4350481659445268</v>
       </c>
       <c r="H4" t="n">
-        <v>1.207874049771262</v>
+        <v>1.390350442051656</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0657311015073655</v>
+        <v>1.508375887390344</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7239010119169145</v>
+        <v>0.2515481217316835</v>
       </c>
       <c r="K4" t="n">
-        <v>0.39481605671214</v>
+        <v>0.879962004561014</v>
       </c>
       <c r="L4" t="n">
-        <v>1.916900018354202</v>
+        <v>0.9831096088611477</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5337035579870834</v>
+        <v>0.6595818114112356</v>
       </c>
       <c r="N4" t="n">
-        <v>1.022717853879399</v>
+        <v>1.034698000408875</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5564244233692636</v>
+        <v>0.687661574645589</v>
       </c>
       <c r="P4" t="n">
-        <v>140.511658916088</v>
+        <v>139.6645970554278</v>
       </c>
       <c r="Q4" t="n">
-        <v>224.6140908319938</v>
+        <v>223.7670289713336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_21</t>
+          <t>model_11_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9574650682335466</v>
+        <v>0.934374940775791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8191823976132775</v>
+        <v>0.7912878398650647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7005772973772459</v>
+        <v>0.6651390881081911</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9624073612167463</v>
+        <v>0.9807958366670241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9632755829523844</v>
+        <v>0.9028951062059459</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2844312845776262</v>
+        <v>0.4388350732078987</v>
       </c>
       <c r="H5" t="n">
-        <v>1.209128139748516</v>
+        <v>1.395659175853443</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06771537103187072</v>
+        <v>1.534141523073028</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6992519602306209</v>
+        <v>0.2685242627990291</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3834836656312459</v>
+        <v>0.9013328929360285</v>
       </c>
       <c r="L5" t="n">
-        <v>1.935066991345453</v>
+        <v>0.9852275533427792</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5333209958154903</v>
+        <v>0.6624462794883059</v>
       </c>
       <c r="N5" t="n">
-        <v>1.022685296942109</v>
+        <v>1.035000031586245</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5560255747340128</v>
+        <v>0.6906479890589665</v>
       </c>
       <c r="P5" t="n">
-        <v>140.5145271701436</v>
+        <v>139.6472632478974</v>
       </c>
       <c r="Q5" t="n">
-        <v>224.6169590860494</v>
+        <v>223.7496951638033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_20</t>
+          <t>model_11_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9575058938203985</v>
+        <v>0.9337868210406013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8189779685019856</v>
+        <v>0.7904765531536395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6916111536605565</v>
+        <v>0.6595113150508156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9637112579939268</v>
+        <v>0.9795449024383476</v>
       </c>
       <c r="F6" t="n">
-        <v>0.964339810940664</v>
+        <v>0.900563926426813</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2841582836903625</v>
+        <v>0.4427678325851546</v>
       </c>
       <c r="H6" t="n">
-        <v>1.210495158157034</v>
+        <v>1.401084253828375</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06974309218722233</v>
+        <v>1.559924766273838</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6749984785147284</v>
+        <v>0.2860155841204143</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3723707853509753</v>
+        <v>0.9229710301316275</v>
       </c>
       <c r="L6" t="n">
-        <v>1.953399631020043</v>
+        <v>0.9873259273437056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5330649901188058</v>
+        <v>0.6654080196279232</v>
       </c>
       <c r="N6" t="n">
-        <v>1.022663523295787</v>
+        <v>1.035313695445013</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5557586703448156</v>
+        <v>0.6937358166079745</v>
       </c>
       <c r="P6" t="n">
-        <v>140.5164477182752</v>
+        <v>139.6294194525162</v>
       </c>
       <c r="Q6" t="n">
-        <v>224.618879634181</v>
+        <v>223.7318513684221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_19</t>
+          <t>model_11_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9575258248742122</v>
+        <v>0.93317761590166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8187563531975722</v>
+        <v>0.7896485662804327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.682451002901771</v>
+        <v>0.6538808606034966</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9649930207888096</v>
+        <v>0.9782583625553559</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9653822243488146</v>
+        <v>0.898205450711554</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2840250046417363</v>
+        <v>0.4468415901543865</v>
       </c>
       <c r="H7" t="n">
-        <v>1.211977100718091</v>
+        <v>1.406621005862038</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07181468863567379</v>
+        <v>1.585720294072538</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6511567058730137</v>
+        <v>0.3040047653022194</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3614856972543437</v>
+        <v>0.9448625296873788</v>
       </c>
       <c r="L7" t="n">
-        <v>1.97190067208936</v>
+        <v>0.9894049488261828</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5329399634496707</v>
+        <v>0.6684621082412873</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02265289340042</v>
+        <v>1.035638604852448</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5556283210315346</v>
+        <v>0.6969199240964445</v>
       </c>
       <c r="P7" t="n">
-        <v>140.5173860003669</v>
+        <v>139.6111022632393</v>
       </c>
       <c r="Q7" t="n">
-        <v>224.6198179162728</v>
+        <v>223.7135341791452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_18</t>
+          <t>model_11_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9575244892298729</v>
+        <v>0.9325481851788727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8185172412749319</v>
+        <v>0.7888044671909199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.67310009639646</v>
+        <v>0.6482490287269176</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9662520004432884</v>
+        <v>0.9769379020808637</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9664022802093508</v>
+        <v>0.8958209937458146</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2840339361015834</v>
+        <v>0.4510505962959266</v>
       </c>
       <c r="H8" t="n">
-        <v>1.213576043245796</v>
+        <v>1.412265500360329</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07392942508666775</v>
+        <v>1.61152213246572</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6277387171449385</v>
+        <v>0.3224682447738509</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3508340711158031</v>
+        <v>0.9669951886197854</v>
       </c>
       <c r="L8" t="n">
-        <v>1.990608028698146</v>
+        <v>0.9914642014273382</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5329483428078029</v>
+        <v>0.6716030049783329</v>
       </c>
       <c r="N8" t="n">
-        <v>1.022653605744068</v>
+        <v>1.035974301237935</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5556370571162902</v>
+        <v>0.7001945353101388</v>
       </c>
       <c r="P8" t="n">
-        <v>140.5173231092885</v>
+        <v>139.592351517726</v>
       </c>
       <c r="Q8" t="n">
-        <v>224.6197550251943</v>
+        <v>223.6947834336319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_17</t>
+          <t>model_11_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9575011673241727</v>
+        <v>0.9318991531095462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8182603780668346</v>
+        <v>0.7879449643346923</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6635600068611063</v>
+        <v>0.6426169075090992</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9674872217891752</v>
+        <v>0.9755843902705725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.967399127015661</v>
+        <v>0.8934115393560927</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2841898897923885</v>
+        <v>0.4553906767320315</v>
       </c>
       <c r="H9" t="n">
-        <v>1.215293688701089</v>
+        <v>1.41801299991757</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07608694586550346</v>
+        <v>1.637325296455274</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6047626512079315</v>
+        <v>0.3413938680747178</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3404247985367174</v>
+        <v>0.989359874997913</v>
       </c>
       <c r="L9" t="n">
-        <v>2.009981067895459</v>
+        <v>0.9935076591974468</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5330946349311616</v>
+        <v>0.6748264048864949</v>
       </c>
       <c r="N9" t="n">
-        <v>1.022666044093774</v>
+        <v>1.036320451674909</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5557895771982067</v>
+        <v>0.7035551620257489</v>
       </c>
       <c r="P9" t="n">
-        <v>140.5162252764444</v>
+        <v>139.5731991965258</v>
       </c>
       <c r="Q9" t="n">
-        <v>224.6186571923502</v>
+        <v>223.6756311124317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_16</t>
+          <t>model_11_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9574553561772245</v>
+        <v>0.9312313659105217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8179854495096718</v>
+        <v>0.7870706786347599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6538303526666867</v>
+        <v>0.6369860489581478</v>
       </c>
       <c r="E10" t="n">
-        <v>0.968698014342448</v>
+        <v>0.9741995178278496</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9683721634660155</v>
+        <v>0.8909788704331087</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2844962291429712</v>
+        <v>0.4598561728067852</v>
       </c>
       <c r="H10" t="n">
-        <v>1.217132137228766</v>
+        <v>1.423859352418734</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07828733727876586</v>
+        <v>1.663122675626111</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5822409795798769</v>
+        <v>0.3607579947645961</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3302641584293213</v>
+        <v>1.01194003993336</v>
       </c>
       <c r="L10" t="n">
-        <v>2.029533140834067</v>
+        <v>0.9955276946212607</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5333818792787877</v>
+        <v>0.6781269592095459</v>
       </c>
       <c r="N10" t="n">
-        <v>1.02269047670548</v>
+        <v>1.036676604847722</v>
       </c>
       <c r="O10" t="n">
-        <v>0.556089050132389</v>
+        <v>0.7069962277794215</v>
       </c>
       <c r="P10" t="n">
-        <v>140.5140705596682</v>
+        <v>139.5536830124022</v>
       </c>
       <c r="Q10" t="n">
-        <v>224.616502475574</v>
+        <v>223.6561149283081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_15</t>
+          <t>model_11_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9573866032489942</v>
+        <v>0.9305455074745994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8176921992971387</v>
+        <v>0.7861822213668878</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6439172683352007</v>
+        <v>0.6313577809923019</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9698836475235985</v>
+        <v>0.9727843015858605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9693208052965484</v>
+        <v>0.8885238584566071</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2849559802906259</v>
+        <v>0.4644425113258854</v>
       </c>
       <c r="H11" t="n">
-        <v>1.219093102750268</v>
+        <v>1.429800470259963</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08052921198531586</v>
+        <v>1.688908186214984</v>
       </c>
       <c r="J11" t="n">
-        <v>0.560187291600853</v>
+        <v>0.3805464068652581</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3203582517930844</v>
+        <v>1.034727594303851</v>
       </c>
       <c r="L11" t="n">
-        <v>2.049266122768324</v>
+        <v>0.9975286067059375</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5338126827742348</v>
+        <v>0.6815001917284289</v>
       </c>
       <c r="N11" t="n">
-        <v>1.02272714493387</v>
+        <v>1.037042396013547</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5565381938245235</v>
+        <v>0.7105130657901874</v>
       </c>
       <c r="P11" t="n">
-        <v>140.510841131527</v>
+        <v>139.5338349860504</v>
       </c>
       <c r="Q11" t="n">
-        <v>224.6132730474329</v>
+        <v>223.6362669019562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_14</t>
+          <t>model_11_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9572942887225615</v>
+        <v>0.9298422488116991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.817380341256092</v>
+        <v>0.785280230799544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6338165554065355</v>
+        <v>0.6257325945208028</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9710433900103785</v>
+        <v>0.9713400486363061</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9702443556880084</v>
+        <v>0.8860478322938051</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2855732879539505</v>
+        <v>0.4691452052429085</v>
       </c>
       <c r="H12" t="n">
-        <v>1.221178498906721</v>
+        <v>1.435832085337076</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08281351947990395</v>
+        <v>1.714679579156015</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5386151904264889</v>
+        <v>0.400740827827534</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3107143549531964</v>
+        <v>1.057710203491774</v>
       </c>
       <c r="L12" t="n">
-        <v>2.069181947737986</v>
+        <v>0.9995083150416303</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5343905762211292</v>
+        <v>0.6849417531753401</v>
       </c>
       <c r="N12" t="n">
-        <v>1.022776379347967</v>
+        <v>1.037417467300427</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5571406893918565</v>
+        <v>0.7141011416329078</v>
       </c>
       <c r="P12" t="n">
-        <v>140.5065131649278</v>
+        <v>139.5136859047846</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.6089450808336</v>
+        <v>223.6161178206904</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_13</t>
+          <t>model_11_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9571778722057204</v>
+        <v>0.9291222742790691</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8170496199754526</v>
+        <v>0.7843652730859979</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6235319931316556</v>
+        <v>0.6201119444284693</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9721764604604398</v>
+        <v>0.9698679448546665</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9711421596596391</v>
+        <v>0.8835518835459055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2863517657381157</v>
+        <v>0.4739596782577829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.223390033633189</v>
+        <v>1.441950411780552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08513940507322619</v>
+        <v>1.740430188997569</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5175392096246926</v>
+        <v>0.421324676020996</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3013393073489594</v>
+        <v>1.080877735195539</v>
       </c>
       <c r="L13" t="n">
-        <v>2.089284115979024</v>
+        <v>1.001471712099466</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5351184595378071</v>
+        <v>0.6884472951924373</v>
       </c>
       <c r="N13" t="n">
-        <v>1.022838468156949</v>
+        <v>1.03780145371783</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5578995602082516</v>
+        <v>0.7177559218311453</v>
       </c>
       <c r="P13" t="n">
-        <v>140.5010685475961</v>
+        <v>139.4932660557443</v>
       </c>
       <c r="Q13" t="n">
-        <v>224.6035004635019</v>
+        <v>223.5956979716502</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,272 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9570368718915926</v>
+        <v>0.9283862548323538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8166997537100998</v>
+        <v>0.7834379269939011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6130682486749559</v>
+        <v>0.6144968829395091</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9732821591468903</v>
+        <v>0.9683691324452967</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9720136445368434</v>
+        <v>0.8810372292449231</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2872946354879349</v>
+        <v>0.4788814436870261</v>
       </c>
       <c r="H14" t="n">
-        <v>1.225729590960589</v>
+        <v>1.448151579368439</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0875058132716079</v>
+        <v>1.766155195049053</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4969723646531881</v>
+        <v>0.4422819804513841</v>
       </c>
       <c r="K14" t="n">
-        <v>0.292239088962398</v>
+        <v>1.104218892857947</v>
       </c>
       <c r="L14" t="n">
-        <v>2.109570178091954</v>
+        <v>1.003410850261476</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5359987271327563</v>
+        <v>0.6920126037053271</v>
       </c>
       <c r="N14" t="n">
-        <v>1.022913668324484</v>
+        <v>1.038193997422745</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5588173026171229</v>
+        <v>0.7214730129086347</v>
       </c>
       <c r="P14" t="n">
-        <v>140.4944939706659</v>
+        <v>139.4726044403333</v>
       </c>
       <c r="Q14" t="n">
-        <v>224.5969258865717</v>
+        <v>223.5750363562391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_11</t>
+          <t>model_11_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9568707579739829</v>
+        <v>0.927634861439427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8163305028982004</v>
+        <v>0.7824987788309539</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6024249088531675</v>
+        <v>0.6088884230651719</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9743598597340128</v>
+        <v>0.966844905875893</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9728582479970521</v>
+        <v>0.8785051283043339</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2884054400198752</v>
+        <v>0.483906014765376</v>
       </c>
       <c r="H15" t="n">
-        <v>1.228198772840004</v>
+        <v>1.454431667458447</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08991283751772439</v>
+        <v>1.791849956271257</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4769263058374696</v>
+        <v>0.4635946410860186</v>
       </c>
       <c r="K15" t="n">
-        <v>0.283419571677597</v>
+        <v>1.127721991175811</v>
       </c>
       <c r="L15" t="n">
-        <v>2.130043105907738</v>
+        <v>1.005335999038841</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5370339281831971</v>
+        <v>0.6956335348194306</v>
       </c>
       <c r="N15" t="n">
-        <v>1.023002262413876</v>
+        <v>1.038594740565639</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5598965743194425</v>
+        <v>0.7252480945566264</v>
       </c>
       <c r="P15" t="n">
-        <v>140.4867760219792</v>
+        <v>139.4517291509816</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.5892079378851</v>
+        <v>223.5541610668874</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_10</t>
+          <t>model_11_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9566790283866454</v>
+        <v>0.9268687749094507</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8159415887645898</v>
+        <v>0.7815483521794355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5916039706274347</v>
+        <v>0.6032880912621248</v>
       </c>
       <c r="E16" t="n">
-        <v>0.975408909226013</v>
+        <v>0.965296202631969</v>
       </c>
       <c r="F16" t="n">
-        <v>0.973675410071784</v>
+        <v>0.8759565315533879</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2896875366532348</v>
+        <v>0.4890288389188312</v>
       </c>
       <c r="H16" t="n">
-        <v>1.230799443442243</v>
+        <v>1.460787174853462</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09236002619263138</v>
+        <v>1.817507479311202</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4574131794009516</v>
+        <v>0.4852495494336829</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2748866027967914</v>
+        <v>1.151378204500439</v>
       </c>
       <c r="L16" t="n">
-        <v>2.150706693466065</v>
+        <v>1.007233457066096</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5382262875902986</v>
+        <v>0.6993059694574552</v>
       </c>
       <c r="N16" t="n">
-        <v>1.023104518193789</v>
+        <v>1.039003320048293</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5611396949350286</v>
+        <v>0.7290768723401795</v>
       </c>
       <c r="P16" t="n">
-        <v>140.4779047933903</v>
+        <v>139.4306676319042</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.5803367092962</v>
+        <v>223.5330995478101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_9</t>
+          <t>model_11_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.956461104621348</v>
+        <v>0.9260885904990421</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8155327895380322</v>
+        <v>0.7805871862687649</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5806082304505598</v>
+        <v>0.5976966107036866</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9764285761726537</v>
+        <v>0.9637241604138622</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9744645095743507</v>
+        <v>0.8733925064919881</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2911447938752246</v>
+        <v>0.4942459356636524</v>
       </c>
       <c r="H17" t="n">
-        <v>1.233533085752581</v>
+        <v>1.467214495723879</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09484674686987155</v>
+        <v>1.843124451001606</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4384465908799422</v>
+        <v>0.507230797478019</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2666466688749068</v>
+        <v>1.175177624239813</v>
       </c>
       <c r="L17" t="n">
-        <v>2.171557806601939</v>
+        <v>1.00911005619825</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5395783482268581</v>
+        <v>0.7030262695402302</v>
       </c>
       <c r="N17" t="n">
-        <v>1.023220744201948</v>
+        <v>1.039419418400511</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5625493155920378</v>
+        <v>0.7329555532995611</v>
       </c>
       <c r="P17" t="n">
-        <v>140.4678691242098</v>
+        <v>139.4094440804104</v>
       </c>
       <c r="Q17" t="n">
-        <v>224.5703010401156</v>
+        <v>223.5118759963162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_8</t>
+          <t>model_11_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9562165203333473</v>
+        <v>0.9252947906155262</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8151038502179202</v>
+        <v>0.7796158276915334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5694410441263869</v>
+        <v>0.592114547419392</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9774183598929529</v>
+        <v>0.9621297777689831</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9752251369106818</v>
+        <v>0.8708140119459372</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2927803301352936</v>
+        <v>0.4995540791398359</v>
       </c>
       <c r="H18" t="n">
-        <v>1.236401404961254</v>
+        <v>1.473709975002521</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09737224062401795</v>
+        <v>1.868698278118295</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4200358533253365</v>
+        <v>0.5295244229233179</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2587040469746772</v>
+        <v>1.199111350520806</v>
       </c>
       <c r="L18" t="n">
-        <v>2.192604352218447</v>
+        <v>1.010969615714608</v>
       </c>
       <c r="M18" t="n">
-        <v>0.541091794555502</v>
+        <v>0.7067913971886159</v>
       </c>
       <c r="N18" t="n">
-        <v>1.023351189155548</v>
+        <v>1.039842778338386</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5641271924641579</v>
+        <v>0.7368809702268273</v>
       </c>
       <c r="P18" t="n">
-        <v>140.4566653553025</v>
+        <v>139.3880788404154</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.5590972712083</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_7</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.955944793319456</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8146545472709041</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5581060874829489</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.978377560455443</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9759567084889843</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2945973699283713</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.2394058958368</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.09993567615518277</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4021939860001232</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.251064831077653</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.213841904082567</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.542768246978737</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.023496110229623</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.565875014937785</v>
-      </c>
-      <c r="P19" t="n">
-        <v>140.4442914051914</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>224.5467233210973</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_6</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9556454707632417</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8141846419616126</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5466029854389594</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9793057710565474</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.976658857926424</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2965989412400305</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.242548154803748</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.10253713828916</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.3849285557633331</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.2437328470262465</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.235275672707366</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.544608980131645</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.023655748926271</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.5677941119118551</v>
-      </c>
-      <c r="P20" t="n">
-        <v>140.4307488378813</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>224.5331807537872</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_5</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9553179154824232</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8136938865765515</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5349381705492552</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9802022998176313</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9773310386555546</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2987893049111172</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.245829838323372</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.1051751722837619</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.3682524320890797</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2367138021864208</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.256908882669718</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.5466162318401432</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.023830445076041</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.569886816481168</v>
-      </c>
-      <c r="P21" t="n">
-        <v>140.4160332396685</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>224.5184651555743</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_4</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9549618640596528</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8131820938811929</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5231127313382998</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9810667619497802</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.977972919750087</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.3011702224146493</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.249252198433824</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.1078495319658117</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.3521727723467717</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2300111521562918</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.278735086082081</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.5487897798015642</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.024020339168185</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.5721528968791711</v>
-      </c>
-      <c r="P22" t="n">
-        <v>140.4001593022177</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>224.5025912181236</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_3</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9545767097373005</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8126490062606617</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5111301244236461</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9818986386620393</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9785840765779271</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.3037457511416914</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.252816957806958</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.1105594356105501</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.3366992264467019</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.223629331028626</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.300765463337825</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5511313374701999</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.024225754806773</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.5745941395054533</v>
-      </c>
-      <c r="P23" t="n">
-        <v>140.3831285448722</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>224.4855604607781</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_2</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9541620839900975</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8120944515635014</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4989983025036385</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9826975129200629</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9791642238240787</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.306518355422414</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.256525267620359</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.1133030846906299</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3218395515480707</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2175713181193502</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.322991269482083</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.553640998682733</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.024446888538615</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.5772106421915189</v>
-      </c>
-      <c r="P24" t="n">
-        <v>140.3649552764267</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>224.4673871923325</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9537175196482585</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8115181672391212</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4867171935400643</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9834629403405721</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9797129649167974</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3094911592233223</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.260378883551035</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1160804954977156</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.307602013521244</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2118412545094798</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.345424697962083</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.556319296109098</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.024683989520929</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.5800029602841643</v>
-      </c>
-      <c r="P25" t="n">
-        <v>140.345651503944</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>224.4480834198499</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.953242540873368</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8109199897525816</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.4742920013250571</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9841946373343251</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9802301036271035</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3126673444780909</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.264378899157879</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.1188904911781086</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.2939918873439735</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.206441189261041</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.368062231938657</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5591666517936231</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.024937311534204</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.5829715337950183</v>
-      </c>
-      <c r="P26" t="n">
-        <v>140.325230901612</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>224.4276628175178</v>
+        <v>223.4905107563213</v>
       </c>
     </row>
   </sheetData>
